--- a/target/test-classes/dataSheets/Book1.xlsx
+++ b/target/test-classes/dataSheets/Book1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="4830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="4830" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="490">
   <si>
     <t>studregdnumber</t>
   </si>
@@ -683,9 +684,6 @@
     <t xml:space="preserve">F22060001003   </t>
   </si>
   <si>
-    <t xml:space="preserve">F19060004025   </t>
-  </si>
-  <si>
     <t>F22060002106</t>
   </si>
   <si>
@@ -1386,6 +1384,120 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22103004011   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH2,TH3,TH4,TH5</t>
+  </si>
+  <si>
+    <t>Back-TH3</t>
+  </si>
+  <si>
+    <t>Back-TH4</t>
+  </si>
+  <si>
+    <t>Back-TH4,TH5</t>
+  </si>
+  <si>
+    <t>Back-TH5</t>
+  </si>
+  <si>
+    <t>Back-TH2</t>
+  </si>
+  <si>
+    <t>Back-TH1,TH5</t>
+  </si>
+  <si>
+    <t>Back-TH1,TH3,TH5</t>
+  </si>
+  <si>
+    <t>Back-TH1,TH2,TH5</t>
+  </si>
+  <si>
+    <t>F22103004011</t>
+  </si>
+  <si>
+    <t>F22060002082</t>
+  </si>
+  <si>
+    <t>F22060002111</t>
+  </si>
+  <si>
+    <t>F22060004118</t>
+  </si>
+  <si>
+    <t>Back-TH1,TH2,TH3</t>
+  </si>
+  <si>
+    <t>F22060010003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH2,TH3,TH4,TH5 </t>
+  </si>
+  <si>
+    <t>F22060010014</t>
+  </si>
+  <si>
+    <t>F22060010046</t>
+  </si>
+  <si>
+    <t>Back-TH3,TH4,TH5</t>
+  </si>
+  <si>
+    <t>F22060010072</t>
+  </si>
+  <si>
+    <t>F22060010116</t>
+  </si>
+  <si>
+    <t>L23060010001</t>
+  </si>
+  <si>
+    <t>F21121002059</t>
+  </si>
+  <si>
+    <t>F21121001046</t>
+  </si>
+  <si>
+    <t>F22121001003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH2,TH5 </t>
+  </si>
+  <si>
+    <t>F22121001017</t>
+  </si>
+  <si>
+    <t>Back-TH1,TH2,TH4</t>
+  </si>
+  <si>
+    <t>F22121001034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH2,TH4 </t>
+  </si>
+  <si>
+    <t>L23096005004</t>
+  </si>
+  <si>
+    <t>Back-TH3,TH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22121002050   </t>
+  </si>
+  <si>
+    <t>Back-TH3,TH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22059004108   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH2,TH3,TH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22174002032   </t>
   </si>
 </sst>
 </file>
@@ -1409,12 +1521,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1429,7 +1553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,6 +1562,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,7 +1910,7 @@
   <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="A9" sqref="A9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +2031,7 @@
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -2114,7 +2240,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
@@ -2125,7 +2251,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
@@ -2136,7 +2262,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
@@ -2147,7 +2273,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
@@ -2158,7 +2284,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
@@ -2169,7 +2295,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
@@ -2180,7 +2306,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -2191,7 +2317,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
@@ -2202,7 +2328,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
@@ -2213,7 +2339,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
@@ -2224,7 +2350,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>4</v>
@@ -2235,7 +2361,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>4</v>
@@ -2246,7 +2372,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>4</v>
@@ -2257,7 +2383,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>4</v>
@@ -2268,7 +2394,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>4</v>
@@ -2279,7 +2405,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>4</v>
@@ -2290,7 +2416,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>4</v>
@@ -2301,7 +2427,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>4</v>
@@ -2312,7 +2438,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>4</v>
@@ -2323,7 +2449,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>4</v>
@@ -2334,7 +2460,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>4</v>
@@ -2345,7 +2471,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>4</v>
@@ -2356,7 +2482,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>4</v>
@@ -2367,7 +2493,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>4</v>
@@ -2378,7 +2504,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>4</v>
@@ -2389,7 +2515,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>4</v>
@@ -2400,7 +2526,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>4</v>
@@ -2411,7 +2537,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>4</v>
@@ -2422,7 +2548,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>4</v>
@@ -2433,7 +2559,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>4</v>
@@ -2444,7 +2570,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>4</v>
@@ -2455,7 +2581,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>4</v>
@@ -2466,7 +2592,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>4</v>
@@ -2477,7 +2603,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>4</v>
@@ -2488,7 +2614,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>4</v>
@@ -2499,7 +2625,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>4</v>
@@ -2510,7 +2636,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>4</v>
@@ -2521,7 +2647,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>4</v>
@@ -2532,7 +2658,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
@@ -2543,7 +2669,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
@@ -2554,7 +2680,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>4</v>
@@ -2565,7 +2691,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>4</v>
@@ -2576,7 +2702,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>4</v>
@@ -2587,7 +2713,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>4</v>
@@ -2609,7 +2735,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>4</v>
@@ -2620,7 +2746,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>4</v>
@@ -2631,7 +2757,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>4</v>
@@ -2642,7 +2768,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
@@ -2653,7 +2779,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -2664,7 +2790,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
@@ -2675,7 +2801,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>4</v>
@@ -2686,7 +2812,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
@@ -2697,7 +2823,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
@@ -2708,7 +2834,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>4</v>
@@ -2719,7 +2845,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>4</v>
@@ -2730,7 +2856,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>4</v>
@@ -2741,7 +2867,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>4</v>
@@ -2752,7 +2878,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>4</v>
@@ -2763,7 +2889,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>4</v>
@@ -2774,7 +2900,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>4</v>
@@ -2785,7 +2911,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>4</v>
@@ -2796,7 +2922,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>4</v>
@@ -2807,7 +2933,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>4</v>
@@ -2818,7 +2944,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>4</v>
@@ -2829,7 +2955,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>4</v>
@@ -2840,7 +2966,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>4</v>
@@ -2851,7 +2977,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>4</v>
@@ -2862,7 +2988,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>4</v>
@@ -2873,7 +2999,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>4</v>
@@ -2884,7 +3010,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>4</v>
@@ -2895,7 +3021,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>4</v>
@@ -2906,7 +3032,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>4</v>
@@ -2917,7 +3043,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>4</v>
@@ -2928,7 +3054,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>4</v>
@@ -2939,7 +3065,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>4</v>
@@ -2950,7 +3076,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>4</v>
@@ -2961,7 +3087,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>4</v>
@@ -2972,7 +3098,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>4</v>
@@ -2983,7 +3109,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>4</v>
@@ -2994,7 +3120,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>4</v>
@@ -3005,7 +3131,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>4</v>
@@ -3016,7 +3142,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>4</v>
@@ -3027,7 +3153,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>4</v>
@@ -3038,7 +3164,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>4</v>
@@ -3049,7 +3175,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>4</v>
@@ -3060,7 +3186,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>4</v>
@@ -3071,7 +3197,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>4</v>
@@ -3082,7 +3208,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>4</v>
@@ -3093,7 +3219,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>4</v>
@@ -3104,7 +3230,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>4</v>
@@ -3115,7 +3241,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>4</v>
@@ -3126,7 +3252,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>4</v>
@@ -3137,7 +3263,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>4</v>
@@ -3148,7 +3274,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>4</v>
@@ -3159,7 +3285,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>4</v>
@@ -3170,7 +3296,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>4</v>
@@ -3181,7 +3307,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>4</v>
@@ -3192,7 +3318,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>4</v>
@@ -3203,7 +3329,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>4</v>
@@ -3214,7 +3340,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>4</v>
@@ -3225,7 +3351,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>4</v>
@@ -3236,7 +3362,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>4</v>
@@ -3247,7 +3373,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>4</v>
@@ -3258,7 +3384,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>4</v>
@@ -3269,7 +3395,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>4</v>
@@ -3280,7 +3406,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>4</v>
@@ -3291,7 +3417,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>4</v>
@@ -3302,7 +3428,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>4</v>
@@ -3313,7 +3439,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>4</v>
@@ -3324,7 +3450,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>4</v>
@@ -3335,7 +3461,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>4</v>
@@ -3346,7 +3472,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>4</v>
@@ -3357,7 +3483,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>4</v>
@@ -3368,7 +3494,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>4</v>
@@ -3379,7 +3505,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>4</v>
@@ -3390,7 +3516,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>4</v>
@@ -3401,7 +3527,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>4</v>
@@ -3412,7 +3538,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>4</v>
@@ -3423,7 +3549,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>4</v>
@@ -3434,7 +3560,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>4</v>
@@ -3445,7 +3571,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>4</v>
@@ -3456,7 +3582,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>4</v>
@@ -3467,7 +3593,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>4</v>
@@ -3478,7 +3604,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>4</v>
@@ -3489,7 +3615,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>4</v>
@@ -3500,7 +3626,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>4</v>
@@ -3511,7 +3637,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>4</v>
@@ -3522,7 +3648,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>4</v>
@@ -3533,7 +3659,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>4</v>
@@ -3544,7 +3670,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>4</v>
@@ -3555,7 +3681,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>4</v>
@@ -3566,7 +3692,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>4</v>
@@ -3577,7 +3703,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>4</v>
@@ -3588,7 +3714,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>4</v>
@@ -3599,7 +3725,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>4</v>
@@ -3610,7 +3736,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>4</v>
@@ -3621,7 +3747,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>4</v>
@@ -3632,7 +3758,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>4</v>
@@ -3643,7 +3769,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>4</v>
@@ -3654,7 +3780,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>4</v>
@@ -3665,7 +3791,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>4</v>
@@ -3676,7 +3802,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>4</v>
@@ -3687,7 +3813,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>4</v>
@@ -3698,7 +3824,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>4</v>
@@ -3709,7 +3835,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>4</v>
@@ -3720,7 +3846,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>4</v>
@@ -3731,7 +3857,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>4</v>
@@ -3742,7 +3868,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>4</v>
@@ -3753,7 +3879,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>4</v>
@@ -3764,7 +3890,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>4</v>
@@ -3775,7 +3901,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>4</v>
@@ -3786,7 +3912,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>4</v>
@@ -3797,7 +3923,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>4</v>
@@ -3808,7 +3934,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>4</v>
@@ -3819,7 +3945,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>4</v>
@@ -3830,7 +3956,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>4</v>
@@ -3841,7 +3967,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>4</v>
@@ -3852,7 +3978,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>4</v>
@@ -3863,7 +3989,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>4</v>
@@ -3874,7 +4000,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>4</v>
@@ -3885,7 +4011,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>4</v>
@@ -3896,7 +4022,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>4</v>
@@ -3907,7 +4033,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -3918,7 +4044,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>4</v>
@@ -3929,7 +4055,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>4</v>
@@ -3940,7 +4066,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>4</v>
@@ -3951,7 +4077,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>4</v>
@@ -3962,7 +4088,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>4</v>
@@ -3973,7 +4099,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>4</v>
@@ -3984,7 +4110,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>4</v>
@@ -3995,7 +4121,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>4</v>
@@ -4006,7 +4132,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>4</v>
@@ -4017,7 +4143,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>4</v>
@@ -4028,7 +4154,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>4</v>
@@ -4039,7 +4165,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -4050,7 +4176,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -4061,7 +4187,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -4072,7 +4198,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -4083,7 +4209,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
@@ -4094,7 +4220,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>4</v>
@@ -4105,7 +4231,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>4</v>
@@ -4116,7 +4242,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>4</v>
@@ -4127,7 +4253,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>4</v>
@@ -4138,7 +4264,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>4</v>
@@ -4149,7 +4275,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>4</v>
@@ -4160,7 +4286,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>4</v>
@@ -4171,7 +4297,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>4</v>
@@ -4182,7 +4308,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>4</v>
@@ -4193,7 +4319,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>4</v>
@@ -4204,7 +4330,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>4</v>
@@ -4215,7 +4341,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>4</v>
@@ -4226,7 +4352,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>4</v>
@@ -4237,7 +4363,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>4</v>
@@ -4248,7 +4374,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>4</v>
@@ -4259,7 +4385,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>4</v>
@@ -4270,7 +4396,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>4</v>
@@ -4281,7 +4407,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>4</v>
@@ -4292,7 +4418,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>4</v>
@@ -4303,7 +4429,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>4</v>
@@ -4314,7 +4440,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>4</v>
@@ -4325,7 +4451,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>4</v>
@@ -4336,7 +4462,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>4</v>
@@ -4347,7 +4473,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>4</v>
@@ -4358,7 +4484,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>4</v>
@@ -4369,7 +4495,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>4</v>
@@ -4380,7 +4506,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>4</v>
@@ -4391,7 +4517,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>4</v>
@@ -4402,7 +4528,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>4</v>
@@ -4413,7 +4539,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>4</v>
@@ -4424,7 +4550,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>4</v>
@@ -4435,7 +4561,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>4</v>
@@ -4446,7 +4572,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>4</v>
@@ -4457,7 +4583,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>4</v>
@@ -4468,7 +4594,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>4</v>
@@ -4479,7 +4605,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>4</v>
@@ -4490,7 +4616,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>4</v>
@@ -4501,7 +4627,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>4</v>
@@ -4512,7 +4638,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>4</v>
@@ -4523,7 +4649,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>4</v>
@@ -4534,7 +4660,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>4</v>
@@ -4545,7 +4671,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>4</v>
@@ -4556,7 +4682,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>4</v>
@@ -4567,7 +4693,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>4</v>
@@ -4578,7 +4704,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>4</v>
@@ -4589,7 +4715,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>4</v>
@@ -4600,7 +4726,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>4</v>
@@ -4611,7 +4737,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>4</v>
@@ -4622,7 +4748,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>4</v>
@@ -4638,10 +4764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,7 +4792,7 @@
         <v>216</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C2" s="3">
         <v>67</v>
@@ -4674,10 +4800,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C3" s="3">
         <v>67</v>
@@ -4685,10 +4811,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>449</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="C4" s="3">
         <v>67</v>
@@ -4696,10 +4822,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>218</v>
+        <v>452</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C5" s="3">
         <v>67</v>
@@ -4710,7 +4836,7 @@
         <v>217</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" s="3">
         <v>67</v>
@@ -4735,17 +4861,6 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
         <v>67</v>
       </c>
     </row>
@@ -4756,6 +4871,300 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C20" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C23" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>

--- a/target/test-classes/dataSheets/Book1.xlsx
+++ b/target/test-classes/dataSheets/Book1.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="4830" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="4830" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="623">
   <si>
     <t>studregdnumber</t>
   </si>
@@ -1395,27 +1396,54 @@
     <t>Back-TH3</t>
   </si>
   <si>
+    <t xml:space="preserve">F22060002082   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22060002111   </t>
+  </si>
+  <si>
     <t>Back-TH4</t>
   </si>
   <si>
     <t>Back-TH4,TH5</t>
   </si>
   <si>
+    <t xml:space="preserve">F22060010072   </t>
+  </si>
+  <si>
     <t>Back-TH5</t>
   </si>
   <si>
+    <t xml:space="preserve">F22060010116   </t>
+  </si>
+  <si>
     <t>Back-TH2</t>
   </si>
   <si>
     <t>Back-TH1,TH5</t>
   </si>
   <si>
+    <t xml:space="preserve">F21121002059   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F21121001046   </t>
+  </si>
+  <si>
     <t>Back-TH1,TH3,TH5</t>
   </si>
   <si>
+    <t xml:space="preserve">Back-TH1,TH5                                                                                        </t>
+  </si>
+  <si>
     <t>Back-TH1,TH2,TH5</t>
   </si>
   <si>
+    <t xml:space="preserve">Back-TH2,TH5                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH2,TH4                                                                                        </t>
+  </si>
+  <si>
     <t>F22103004011</t>
   </si>
   <si>
@@ -1479,9 +1507,6 @@
     <t xml:space="preserve">Back-TH2,TH4 </t>
   </si>
   <si>
-    <t>L23096005004</t>
-  </si>
-  <si>
     <t>Back-TH3,TH4</t>
   </si>
   <si>
@@ -1498,6 +1523,381 @@
   </si>
   <si>
     <t xml:space="preserve">F22174002032   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22121001037   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22103010033   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22121001056   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22103004012   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23011001004   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22121002032   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH2,TH3,TH5                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22109002017   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH2,TH4,TH5                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22013004067   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH3                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22059002029   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH3,TH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23013009003   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH3,TH4,TH5                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22117002024   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH4                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22061002047   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH4,TH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22022002049   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23013002002   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22063005060   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH2,TH3                                                                                        </t>
+  </si>
+  <si>
+    <t>Back-TH2,TH3,TH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23013008016   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH2,TH3,TH4,TH5                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22111002062   </t>
+  </si>
+  <si>
+    <t>Back-TH2,TH3,TH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22011001035   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22111001048   </t>
+  </si>
+  <si>
+    <t>Back-TH2,TH4,TH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22013021014   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23013009005   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH3,TH4                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22059001049   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22013002020   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH3,TH5                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23014003008   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH4,TH5                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22072003024   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH2,PR1,PR2,PR3,PR4                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22149001050   </t>
+  </si>
+  <si>
+    <t>Back-PR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22035001026   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22073004010   </t>
+  </si>
+  <si>
+    <t>Back-PR1,PR2,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22096045019   </t>
+  </si>
+  <si>
+    <t>Back-PR1,PR2,PR3,PR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22014026017   </t>
+  </si>
+  <si>
+    <t>Back-PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23153004008   </t>
+  </si>
+  <si>
+    <t>Back-PR2,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22074002031   </t>
+  </si>
+  <si>
+    <t>Back-TH1,PR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22078001031   </t>
+  </si>
+  <si>
+    <t>Back-TH1,PR1,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22019001013   </t>
+  </si>
+  <si>
+    <t>Back-PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22035004017   </t>
+  </si>
+  <si>
+    <t>Back-TH1,PR1,PR2,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22018003007   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22008002099   </t>
+  </si>
+  <si>
+    <t>Back-TH1,PR1,PR2,PR3,PR4</t>
+  </si>
+  <si>
+    <t>Back-TH1,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22035004109   </t>
+  </si>
+  <si>
+    <t>Back-TH1,PR2,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22035002019   </t>
+  </si>
+  <si>
+    <t>Back-TH1,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22112003008   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH2,PR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22165004033   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH2,TH3,PR1,PR2,PR3                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23030002007   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH3,PR1,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22127004029   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH3,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22019009004   </t>
+  </si>
+  <si>
+    <t>Back-TH1,TH4,PR1,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23084004037   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH1,TH4,PR1,PR2,PR3                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22029001020   </t>
+  </si>
+  <si>
+    <t>Back-TH2,PR1,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22035002105   </t>
+  </si>
+  <si>
+    <t>Back-TH2,PR1,PR2,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23132001006   </t>
+  </si>
+  <si>
+    <t>Back-TH2,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22014001011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-TH2,TH3,TH4,PR2                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L23007010003   </t>
+  </si>
+  <si>
+    <t>Back-TH2,TH3,TH4,TH5,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22001005043   </t>
+  </si>
+  <si>
+    <t>Back-TH2,TH4,PR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22012007023   </t>
+  </si>
+  <si>
+    <t>Back-TH2,TH5,PR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22004004012   </t>
+  </si>
+  <si>
+    <t>Back-TH3,PR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22005004057   </t>
+  </si>
+  <si>
+    <t>Back-TH3,PR1,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F18157004045   </t>
+  </si>
+  <si>
+    <t>Back-TH3,PR1,PR2,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22096045004   </t>
+  </si>
+  <si>
+    <t>Back-TH3,PR1,PR2,PR3,PR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22005004085   </t>
+  </si>
+  <si>
+    <t>Back-TH3,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22014015017   </t>
+  </si>
+  <si>
+    <t>Back-TH3,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22007010015   </t>
+  </si>
+  <si>
+    <t>Back-TH3,TH5,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22115002014   </t>
+  </si>
+  <si>
+    <t>Back-TH4,PR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22030002035   </t>
+  </si>
+  <si>
+    <t>Back-TH4,PR1,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22159002046   </t>
+  </si>
+  <si>
+    <t>Back-TH4,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F21074002019   </t>
+  </si>
+  <si>
+    <t>Back-TH5,PR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22014001032   </t>
+  </si>
+  <si>
+    <t>Back-TH5,PR1,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22035002040   </t>
+  </si>
+  <si>
+    <t>Back-TH5,PR1,PR2,PR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22007010007   </t>
+  </si>
+  <si>
+    <t>Back-TH5,PR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F22043004082   </t>
+  </si>
+  <si>
+    <t>Back-TH5,PR3</t>
   </si>
 </sst>
 </file>
@@ -4872,10 +5272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4897,10 +5297,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C2" s="3">
         <v>67</v>
@@ -4908,10 +5308,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>464</v>
+        <v>540</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>455</v>
+        <v>541</v>
       </c>
       <c r="C3" s="3">
         <v>67</v>
@@ -4919,10 +5319,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>214</v>
+        <v>542</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C4" s="3">
         <v>67</v>
@@ -4930,10 +5330,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C5" s="3">
         <v>67</v>
@@ -4941,10 +5341,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C6" s="3">
         <v>67</v>
@@ -4952,32 +5352,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>469</v>
+        <v>214</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7">
+        <v>445</v>
+      </c>
+      <c r="C7" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C8">
+        <v>475</v>
+      </c>
+      <c r="C8" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="C9" s="3">
         <v>67</v>
@@ -4985,29 +5385,29 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C11" s="3">
+        <v>480</v>
+      </c>
+      <c r="C11">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>460</v>
@@ -5018,10 +5418,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C13" s="3">
         <v>67</v>
@@ -5029,32 +5429,32 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14">
+        <v>463</v>
+      </c>
+      <c r="C14" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15">
+        <v>466</v>
+      </c>
+      <c r="C15" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C16" s="3">
         <v>67</v>
@@ -5062,32 +5462,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" s="3">
+        <v>486</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C17">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>462</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>256</v>
+        <v>490</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="C19" s="3">
         <v>67</v>
@@ -5095,21 +5495,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>448</v>
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="C20" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>484</v>
+      <c r="A21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="C21" s="3">
         <v>67</v>
@@ -5117,10 +5517,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>487</v>
+        <v>256</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="C22" s="3">
         <v>67</v>
@@ -5128,10 +5528,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>489</v>
+        <v>569</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
       <c r="C23" s="3">
         <v>67</v>
@@ -5139,10 +5539,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
+        <v>493</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="C24" s="3">
         <v>67</v>
@@ -5150,12 +5550,45 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C25" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C26" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C27" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
         <v>67</v>
       </c>
     </row>
@@ -5165,6 +5598,659 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D200"/>
   <sheetViews>
